--- a/Data/Data-Processed-Date/Regions-By-Date.xlsx
+++ b/Data/Data-Processed-Date/Regions-By-Date.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazi0302/Desktop/SDSU/MSCSDS/COVID-19-Modeling-and-Parameter-Fitting/Data/Data-Processed-Date/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0071CE9-D012-C84A-89E0-F98CF67BE67A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F10E3EB-30D4-184A-820C-564F5A6BEB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="500" windowWidth="35840" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="500" windowWidth="35840" windowHeight="21100" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Central Region (2)" sheetId="7" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="South Region" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'North Inland'!$C$2:$C$226</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'North Inland'!$D$2:$D$226</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">#REF!</definedName>
@@ -105,6 +107,8842 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Central Region (2)'!$C$2:$C$232</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="231"/>
+                <c:pt idx="0">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43977</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43978</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43979</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43981</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43986</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43987</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43988</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43989</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43991</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43992</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43993</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43994</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44004</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44005</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44007</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44009</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44010</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44011</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44014</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44015</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44017</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44020</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44021</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44022</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44023</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44024</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44025</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44026</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44027</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44034</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44035</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44036</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44037</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44038</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44040</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44041</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44042</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44046</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44047</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44048</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44049</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44051</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44052</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44059</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44062</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44066</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44073</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44087</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44091</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44092</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44093</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44094</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>44095</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>44096</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>44097</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>44101</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44106</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44107</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44108</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44109</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>44111</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>44112</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>44113</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>44114</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>44115</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>44116</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>44117</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>44118</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>44119</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>44120</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>44121</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>44122</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>44123</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>44124</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>44125</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>44126</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>44127</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>44128</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>44129</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>44130</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>44131</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>44132</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>44138</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>44139</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>44140</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>44141</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>44142</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>44143</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>44144</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>44145</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>44146</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>44164</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>44167</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>44170</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>44171</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>44172</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>44189</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>44190</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>44191</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>44192</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>44193</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Central Region (2)'!$D$2:$D$232</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="231"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>807</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>602</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1057</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>3660</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>387</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-24D0-2746-AC69-D1821A85D3D8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1278439056"/>
+        <c:axId val="1278599408"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1278439056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1278599408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1278599408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1278439056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'North Costal'!$C$2:$C$226</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="225"/>
+                <c:pt idx="0">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43977</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43978</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43979</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43981</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43986</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43987</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43988</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43989</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43991</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43992</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43993</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43994</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44004</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44005</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44007</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44009</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44010</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44011</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44014</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44015</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44017</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44020</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44027</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44034</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44035</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44036</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44037</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44038</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44040</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44041</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44042</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44046</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44047</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44048</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44049</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44051</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44052</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44059</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44062</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44066</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44073</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44087</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44091</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44092</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44093</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44094</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44095</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44096</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44097</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>44101</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>44106</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>44107</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>44108</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>44109</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>44111</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44112</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44113</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44114</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44115</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>44116</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>44117</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>44118</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>44119</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>44120</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>44121</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>44122</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>44123</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>44124</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>44125</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>44126</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>44127</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>44128</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>44129</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>44130</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>44131</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>44132</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>44138</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>44139</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>44140</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>44141</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>44142</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>44143</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>44144</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>44145</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>44146</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>44164</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>44167</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>44170</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>44171</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>44172</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>44189</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>44190</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>44191</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>44192</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>44193</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'North Costal'!$D$2:$D$226</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="225"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>794</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>2951</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-24CD-7E4A-B4F6-C2F1F4006232}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1715768032"/>
+        <c:axId val="1716067840"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1715768032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1716067840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1716067840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1715768032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'North Inland'!$C$2:$C$226</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="225"/>
+                <c:pt idx="0">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43977</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43978</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43979</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43981</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43986</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43987</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43988</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43989</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43991</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43992</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43993</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43994</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44004</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44005</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44007</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44009</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44010</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44011</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44014</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44015</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44017</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44020</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44027</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44034</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44035</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44036</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44037</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44038</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44040</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44041</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44042</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44046</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44047</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44048</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44049</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44051</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44052</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44059</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44062</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44066</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44073</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44087</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44091</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44092</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44093</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44094</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44095</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44096</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44097</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>44101</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>44106</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>44107</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>44108</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>44109</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>44111</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44112</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44113</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44114</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44115</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>44116</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>44117</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>44118</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>44119</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>44120</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>44121</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>44122</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>44123</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>44124</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>44125</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>44126</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>44127</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>44128</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>44129</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>44130</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>44131</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>44132</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>44138</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>44139</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>44140</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>44141</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>44142</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>44143</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>44144</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>44145</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>44146</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>44164</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>44167</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>44170</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>44171</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>44172</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>44189</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>44190</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>44191</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>44192</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>44193</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'North Inland'!$D$2:$D$226</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="225"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>462</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>828</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-915</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1512</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>4051</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>473</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>393</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0D58-6E4E-B109-885E7CA4FBD2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1277050832"/>
+        <c:axId val="1276332896"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1277050832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1276332896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1276332896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1277050832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'South Region'!$C$2:$C$226</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="225"/>
+                <c:pt idx="0">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43944</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43948</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43954</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43957</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43974</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43975</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43976</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43977</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43978</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43979</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43981</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43982</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43983</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43984</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43985</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43986</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43987</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43988</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43989</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43991</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43992</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43993</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>43994</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>43995</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>43996</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43997</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>43999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44000</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44004</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44005</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44007</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44008</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44009</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44010</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44011</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44012</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44013</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44014</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44015</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44016</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44017</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44018</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44019</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44020</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44027</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44034</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44035</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44036</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44037</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44038</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44040</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44041</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44042</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44043</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44044</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44045</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44046</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44047</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44048</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44049</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44050</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44051</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44052</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44054</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44059</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>44062</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>44066</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>44071</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>44073</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>44075</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>44081</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>44087</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>44089</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>44091</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>44092</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>44093</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>44094</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>44095</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>44096</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>44097</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>44099</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>44100</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>44101</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>44105</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>44106</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>44107</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>44108</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>44109</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>44110</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>44111</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>44112</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>44113</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>44114</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>44115</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>44116</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>44117</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>44118</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>44119</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>44120</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>44121</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>44122</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>44123</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>44124</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>44125</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>44126</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>44127</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>44128</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>44129</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>44130</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>44131</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>44132</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>44134</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>44138</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>44139</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>44140</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>44141</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>44142</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>44143</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>44144</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>44145</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>44146</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>44147</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>44148</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>44149</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>44150</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>44151</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>44153</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>44154</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>44155</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>44156</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>44157</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>44158</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>44163</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>44164</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>44165</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>44166</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>44167</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>44168</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>44169</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>44170</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>44171</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>44172</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>44173</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>44174</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>44175</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>44176</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>44177</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>44178</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>44179</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>44180</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>44189</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>44190</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>44191</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>44192</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>44193</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'South Region'!$D$2:$D$226</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="225"/>
+                <c:pt idx="0">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>924</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1580</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>526</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>559</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>505</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>554</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>836</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>5776</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>629</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>683</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>486</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CC29-F74F-A3BC-4B34D2999B81}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1279811376"/>
+        <c:axId val="1279813024"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1279811376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1279813024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1279813024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1279811376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>136524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3873500</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68AA7461-CA19-8E55-D8D3-3B619E43AD0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>218</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{246D345F-A5F2-C97D-E61A-7880DF095311}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C354C080-032B-A009-0EAE-17AAB33E4E1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>755650</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87555AC4-BF6E-F0D3-D571-87C770AA42CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -406,8 +9244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E16D44-C591-1445-86AE-A62C90757E36}">
   <dimension ref="A1:G233"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A189" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60.83203125" defaultRowHeight="13"/>
@@ -4816,6 +13654,7 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10286,7 +19125,7 @@
         <v>44150</v>
       </c>
       <c r="D195">
-        <f t="shared" ref="D195:D227" si="3">A195-A194</f>
+        <f t="shared" ref="D195:D226" si="3">A195-A194</f>
         <v>169</v>
       </c>
     </row>
@@ -14186,8 +23025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D227"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D226"/>
+    <sheetView topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60.83203125" defaultRowHeight="13"/>
@@ -17592,6 +26431,7 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17599,8 +26439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D227"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D226"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="G172" sqref="G172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60.83203125" defaultRowHeight="13"/>
@@ -21005,6 +29845,7 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -21012,8 +29853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D227"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D226"/>
+    <sheetView topLeftCell="A167" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60.83203125" defaultRowHeight="13"/>
@@ -24418,5 +33259,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Data-Processed-Date/Regions-By-Date.xlsx
+++ b/Data/Data-Processed-Date/Regions-By-Date.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kazi0302/Desktop/SDSU/MSCSDS/COVID-19-Modeling-and-Parameter-Fitting/Data/Data-Processed-Date/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6CD34B-8F43-7F44-85AD-B81D3282E25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AB93E5-47F4-B548-A875-6AF50DDC5880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="500" windowWidth="35840" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="500" windowWidth="35840" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Central Region" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
     <sheet name="South Region" sheetId="6" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'North Central'!$C$2:$C$227</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'North Central'!$D$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'North Central'!$D$2:$D$227</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">#REF!</definedName>
@@ -40,7 +37,7 @@
     <definedName name="_xlnm.Sheet_Title" localSheetId="5">"North Inland"</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="6">"South Region"</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <webPublishing css="0" allowPng="1" codePage="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -125,6 +122,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Central</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16196,15 +16218,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E16D44-C591-1445-86AE-A62C90757E36}">
-  <dimension ref="A1:G233"/>
+  <dimension ref="A1:D233"/>
   <sheetViews>
-    <sheetView topLeftCell="A189" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D232"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60.83203125" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1">
         <v>296</v>
       </c>
@@ -16215,7 +16237,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>324</v>
       </c>
@@ -16229,12 +16251,8 @@
         <f>A2-A1</f>
         <v>28</v>
       </c>
-      <c r="E2">
-        <f>D2</f>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>350</v>
       </c>
@@ -16248,12 +16266,8 @@
         <f t="shared" ref="D3:D66" si="0">A3-A2</f>
         <v>26</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E66" si="1">D3</f>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>368</v>
       </c>
@@ -16267,12 +16281,8 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>392</v>
       </c>
@@ -16286,12 +16296,8 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>419</v>
       </c>
@@ -16305,12 +16311,8 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>424</v>
       </c>
@@ -16324,12 +16326,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="E7">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>431</v>
       </c>
@@ -16343,12 +16341,8 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E8">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>438</v>
       </c>
@@ -16362,12 +16356,8 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>457</v>
       </c>
@@ -16381,12 +16371,8 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>470</v>
       </c>
@@ -16400,12 +16386,8 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>490</v>
       </c>
@@ -16419,12 +16401,8 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>499</v>
       </c>
@@ -16438,12 +16416,8 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="E13">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>506</v>
       </c>
@@ -16457,12 +16431,8 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="E14">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
         <v>520</v>
       </c>
@@ -16476,12 +16446,8 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="E15">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>541</v>
       </c>
@@ -16495,12 +16461,8 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="E16">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>598</v>
       </c>
@@ -16514,12 +16476,8 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="E17">
-        <f t="shared" si="1"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>643</v>
       </c>
@@ -16533,12 +16491,8 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="E18">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>675</v>
       </c>
@@ -16552,12 +16506,8 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="E19">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>699</v>
       </c>
@@ -16571,12 +16521,8 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E20">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>739</v>
       </c>
@@ -16590,12 +16536,8 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="E21">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>793</v>
       </c>
@@ -16609,12 +16551,8 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="E22">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>818</v>
       </c>
@@ -16628,12 +16566,8 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="E23">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>834</v>
       </c>
@@ -16647,12 +16581,8 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E24">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>866</v>
       </c>
@@ -16666,12 +16596,8 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="E25">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>896</v>
       </c>
@@ -16685,12 +16611,8 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E26">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>918</v>
       </c>
@@ -16704,12 +16626,8 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="E27">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>960</v>
       </c>
@@ -16723,12 +16641,8 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="E28">
-        <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29">
         <v>990</v>
       </c>
@@ -16742,12 +16656,8 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E29">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>1020</v>
       </c>
@@ -16761,12 +16671,8 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E30">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>1043</v>
       </c>
@@ -16780,12 +16686,8 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="E31">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>1070</v>
       </c>
@@ -16799,12 +16701,8 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="E32">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>1098</v>
       </c>
@@ -16818,12 +16716,8 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="E33">
-        <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>1127</v>
       </c>
@@ -16837,12 +16731,8 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="E34">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>1276</v>
       </c>
@@ -16856,12 +16746,8 @@
         <f t="shared" si="0"/>
         <v>149</v>
       </c>
-      <c r="E35">
-        <f t="shared" si="1"/>
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>1310</v>
       </c>
@@ -16875,12 +16761,8 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="E36">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>1340</v>
       </c>
@@ -16894,12 +16776,8 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="E37">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>1366</v>
       </c>
@@ -16913,12 +16791,8 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="E38">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>1433</v>
       </c>
@@ -16932,12 +16806,8 @@
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="E39">
-        <f t="shared" si="1"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>1451</v>
       </c>
@@ -16951,12 +16821,8 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E40">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>1467</v>
       </c>
@@ -16970,12 +16836,8 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E41">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42">
         <v>1488</v>
       </c>
@@ -16989,12 +16851,8 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="E42">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43">
         <v>1531</v>
       </c>
@@ -17008,12 +16866,8 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="E43">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44">
         <v>1553</v>
       </c>
@@ -17027,12 +16881,8 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="E44">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45">
         <v>1601</v>
       </c>
@@ -17046,12 +16896,8 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="E45">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46">
         <v>1625</v>
       </c>
@@ -17065,12 +16911,8 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E46">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47">
         <v>1640</v>
       </c>
@@ -17084,12 +16926,8 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E47">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>1658</v>
       </c>
@@ -17103,12 +16941,8 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="E48">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>1694</v>
       </c>
@@ -17122,12 +16956,8 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="E49">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50">
         <v>1711</v>
       </c>
@@ -17141,12 +16971,8 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="E50">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51">
         <v>1764</v>
       </c>
@@ -17160,12 +16986,8 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="E51">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52">
         <v>1809</v>
       </c>
@@ -17179,12 +17001,8 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="E52">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53">
         <v>1842</v>
       </c>
@@ -17198,12 +17016,8 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="E53">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54">
         <v>1874</v>
       </c>
@@ -17217,12 +17031,8 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="E54">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55">
         <v>1928</v>
       </c>
@@ -17236,12 +17046,8 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="E55">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>1965</v>
       </c>
@@ -17255,12 +17061,8 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="E56">
-        <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>1997</v>
       </c>
@@ -17274,12 +17076,8 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="E57">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58">
         <v>2038</v>
       </c>
@@ -17293,12 +17091,8 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="E58">
-        <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59">
         <v>2070</v>
       </c>
@@ -17312,12 +17106,8 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="E59">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60">
         <v>2109</v>
       </c>
@@ -17331,12 +17121,8 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="E60">
-        <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61">
         <v>2138</v>
       </c>
@@ -17350,12 +17136,8 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="E61">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62">
         <v>2162</v>
       </c>
@@ -17369,12 +17151,8 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="E62">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63">
         <v>2222</v>
       </c>
@@ -17388,12 +17166,8 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="E63">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64">
         <v>2278</v>
       </c>
@@ -17407,12 +17181,8 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="E64">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65">
         <v>2318</v>
       </c>
@@ -17426,12 +17196,8 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="E65">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66">
         <v>2407</v>
       </c>
@@ -17445,12 +17211,8 @@
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="E66">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67">
         <v>2475</v>
       </c>
@@ -17461,15 +17223,11 @@
         <v>44003</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="2">A67-A66</f>
+        <f t="shared" ref="D67:D130" si="1">A67-A66</f>
         <v>68</v>
       </c>
-      <c r="E67">
-        <f t="shared" ref="E67:E75" si="3">D67</f>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68">
         <v>2514</v>
       </c>
@@ -17480,15 +17238,11 @@
         <v>44004</v>
       </c>
       <c r="D68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="E68">
-        <f t="shared" si="3"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69">
         <v>2592</v>
       </c>
@@ -17499,15 +17253,11 @@
         <v>44005</v>
       </c>
       <c r="D69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="E69">
-        <f t="shared" si="3"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70">
         <v>2790</v>
       </c>
@@ -17518,14 +17268,11 @@
         <v>44007</v>
       </c>
       <c r="D70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>198</v>
       </c>
-      <c r="E70">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71">
         <v>2863</v>
       </c>
@@ -17536,15 +17283,11 @@
         <v>44008</v>
       </c>
       <c r="D71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="E71">
-        <f t="shared" si="3"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72">
         <v>2999</v>
       </c>
@@ -17555,14 +17298,11 @@
         <v>44009</v>
       </c>
       <c r="D72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>136</v>
       </c>
-      <c r="E72">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73">
         <v>3093</v>
       </c>
@@ -17573,15 +17313,11 @@
         <v>44010</v>
       </c>
       <c r="D73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
-      <c r="E73">
-        <f t="shared" si="3"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74">
         <v>3162</v>
       </c>
@@ -17592,15 +17328,11 @@
         <v>44011</v>
       </c>
       <c r="D74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="E74">
-        <f t="shared" si="3"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75">
         <v>3273</v>
       </c>
@@ -17611,15 +17343,11 @@
         <v>44012</v>
       </c>
       <c r="D75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>111</v>
       </c>
-      <c r="E75">
-        <f t="shared" si="3"/>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76">
         <v>3417</v>
       </c>
@@ -17630,14 +17358,11 @@
         <v>44013</v>
       </c>
       <c r="D76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>144</v>
       </c>
-      <c r="E76">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77">
         <v>3530</v>
       </c>
@@ -17648,17 +17373,11 @@
         <v>44014</v>
       </c>
       <c r="D77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>113</v>
       </c>
-      <c r="E77">
-        <v>154</v>
-      </c>
-      <c r="F77">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78">
         <v>3626</v>
       </c>
@@ -17669,17 +17388,11 @@
         <v>44015</v>
       </c>
       <c r="D78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="E78">
-        <v>164</v>
-      </c>
-      <c r="F78">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79">
         <v>3715</v>
       </c>
@@ -17690,14 +17403,11 @@
         <v>44016</v>
       </c>
       <c r="D79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="E79">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80">
         <v>3768</v>
       </c>
@@ -17708,14 +17418,11 @@
         <v>44017</v>
       </c>
       <c r="D80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="E80">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81">
         <v>3874</v>
       </c>
@@ -17726,14 +17433,11 @@
         <v>44018</v>
       </c>
       <c r="D81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
-      <c r="E81">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82">
         <v>3942</v>
       </c>
@@ -17744,14 +17448,11 @@
         <v>44019</v>
       </c>
       <c r="D82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="E82">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83">
         <v>4051</v>
       </c>
@@ -17762,14 +17463,11 @@
         <v>44020</v>
       </c>
       <c r="D83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>109</v>
       </c>
-      <c r="E83">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84">
         <f>A83+99</f>
         <v>4150</v>
@@ -17778,94 +17476,76 @@
         <v>44021</v>
       </c>
       <c r="D84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="E84">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85">
-        <f t="shared" ref="A85:A89" si="4">A84+99</f>
+        <f t="shared" ref="A85:A89" si="2">A84+99</f>
         <v>4249</v>
       </c>
       <c r="C85" s="1">
         <v>44022</v>
       </c>
       <c r="D85">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
         <f t="shared" si="2"/>
-        <v>99</v>
-      </c>
-      <c r="E85">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86">
-        <f t="shared" si="4"/>
         <v>4348</v>
       </c>
       <c r="C86" s="1">
         <v>44023</v>
       </c>
       <c r="D86">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
         <f t="shared" si="2"/>
-        <v>99</v>
-      </c>
-      <c r="E86">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
-      <c r="A87">
-        <f t="shared" si="4"/>
         <v>4447</v>
       </c>
       <c r="C87" s="1">
         <v>44024</v>
       </c>
       <c r="D87">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
         <f t="shared" si="2"/>
-        <v>99</v>
-      </c>
-      <c r="E87">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88">
-        <f t="shared" si="4"/>
         <v>4546</v>
       </c>
       <c r="C88" s="1">
         <v>44025</v>
       </c>
       <c r="D88">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
         <f t="shared" si="2"/>
-        <v>99</v>
-      </c>
-      <c r="E88">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89">
-        <f t="shared" si="4"/>
         <v>4645</v>
       </c>
       <c r="C89" s="1">
         <v>44026</v>
       </c>
       <c r="D89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>99</v>
       </c>
-      <c r="E89">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90">
         <v>4732</v>
       </c>
@@ -17876,14 +17556,11 @@
         <v>44027</v>
       </c>
       <c r="D90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="E90">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91">
         <v>5539</v>
       </c>
@@ -17894,14 +17571,11 @@
         <v>44034</v>
       </c>
       <c r="D91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>807</v>
       </c>
-      <c r="E91">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92">
         <v>5617</v>
       </c>
@@ -17912,14 +17586,11 @@
         <v>44035</v>
       </c>
       <c r="D92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="E92">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93">
         <v>5735</v>
       </c>
@@ -17930,14 +17601,11 @@
         <v>44036</v>
       </c>
       <c r="D93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>118</v>
       </c>
-      <c r="E93">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94">
         <v>5793</v>
       </c>
@@ -17948,14 +17616,11 @@
         <v>44037</v>
       </c>
       <c r="D94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="E94">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95">
         <v>5889</v>
       </c>
@@ -17966,14 +17631,11 @@
         <v>44038</v>
       </c>
       <c r="D95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="E95">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96">
         <v>6066</v>
       </c>
@@ -17984,14 +17646,11 @@
         <v>44040</v>
       </c>
       <c r="D96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>177</v>
       </c>
-      <c r="E96">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97">
         <v>6142</v>
       </c>
@@ -18002,14 +17661,11 @@
         <v>44041</v>
       </c>
       <c r="D97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="E97">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98">
         <v>6222</v>
       </c>
@@ -18020,21 +17676,11 @@
         <v>44042</v>
       </c>
       <c r="D98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="E98">
-        <v>40</v>
-      </c>
-      <c r="F98">
-        <v>3097</v>
-      </c>
-      <c r="G98">
-        <f>SUM(E76:E100)</f>
-        <v>4843</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99">
         <v>6307</v>
       </c>
@@ -18045,18 +17691,11 @@
         <v>44043</v>
       </c>
       <c r="D99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="E99">
-        <v>50</v>
-      </c>
-      <c r="G99">
-        <f>F98-G98</f>
-        <v>-1746</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100">
         <v>6370</v>
       </c>
@@ -18067,15 +17706,11 @@
         <v>44044</v>
       </c>
       <c r="D100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="E100">
-        <f>D100</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101">
         <v>6450</v>
       </c>
@@ -18086,15 +17721,11 @@
         <v>44045</v>
       </c>
       <c r="D101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="E101">
-        <f t="shared" ref="E101:E164" si="5">D101</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102">
         <v>6522</v>
       </c>
@@ -18105,15 +17736,11 @@
         <v>44046</v>
       </c>
       <c r="D102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="E102">
-        <f t="shared" si="5"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103">
         <v>6589</v>
       </c>
@@ -18124,15 +17751,11 @@
         <v>44047</v>
       </c>
       <c r="D103">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="E103">
-        <f t="shared" si="5"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104">
         <v>6644</v>
       </c>
@@ -18143,15 +17766,11 @@
         <v>44048</v>
       </c>
       <c r="D104">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="E104">
-        <f t="shared" si="5"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105">
         <v>6759</v>
       </c>
@@ -18162,15 +17781,11 @@
         <v>44049</v>
       </c>
       <c r="D105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="E105">
-        <f t="shared" si="5"/>
-        <v>115</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106">
         <v>6862</v>
       </c>
@@ -18181,15 +17796,11 @@
         <v>44050</v>
       </c>
       <c r="D106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
-      <c r="E106">
-        <f t="shared" si="5"/>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107">
         <v>6940</v>
       </c>
@@ -18200,15 +17811,11 @@
         <v>44051</v>
       </c>
       <c r="D107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="E107">
-        <f t="shared" si="5"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108">
         <v>6983</v>
       </c>
@@ -18219,15 +17826,11 @@
         <v>44052</v>
       </c>
       <c r="D108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="E108">
-        <f t="shared" si="5"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109">
         <v>7032</v>
       </c>
@@ -18238,15 +17841,11 @@
         <v>44053</v>
       </c>
       <c r="D109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="E109">
-        <f t="shared" si="5"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7">
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110">
         <v>7081</v>
       </c>
@@ -18257,15 +17856,11 @@
         <v>44054</v>
       </c>
       <c r="D110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="E110">
-        <f t="shared" si="5"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111">
         <v>7126</v>
       </c>
@@ -18276,15 +17871,11 @@
         <v>44055</v>
       </c>
       <c r="D111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="E111">
-        <f t="shared" si="5"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112">
         <v>7192</v>
       </c>
@@ -18295,15 +17886,11 @@
         <v>44056</v>
       </c>
       <c r="D112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="E112">
-        <f t="shared" si="5"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113">
         <v>7245</v>
       </c>
@@ -18314,15 +17901,11 @@
         <v>44057</v>
       </c>
       <c r="D113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="E113">
-        <f t="shared" si="5"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114">
         <v>7316</v>
       </c>
@@ -18333,15 +17916,11 @@
         <v>44058</v>
       </c>
       <c r="D114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="E114">
-        <f t="shared" si="5"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115">
         <v>7373</v>
       </c>
@@ -18352,15 +17931,11 @@
         <v>44059</v>
       </c>
       <c r="D115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="E115">
-        <f t="shared" si="5"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116">
         <v>7411</v>
       </c>
@@ -18371,15 +17946,11 @@
         <v>44060</v>
       </c>
       <c r="D116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="E116">
-        <f t="shared" si="5"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117">
         <v>7451</v>
       </c>
@@ -18390,15 +17961,11 @@
         <v>44061</v>
       </c>
       <c r="D117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="E117">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118">
         <v>7511</v>
       </c>
@@ -18409,15 +17976,11 @@
         <v>44062</v>
       </c>
       <c r="D118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="E118">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119">
         <v>7567</v>
       </c>
@@ -18428,15 +17991,11 @@
         <v>44063</v>
       </c>
       <c r="D119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="E119">
-        <f t="shared" si="5"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120">
         <v>7626</v>
       </c>
@@ -18447,15 +18006,11 @@
         <v>44064</v>
       </c>
       <c r="D120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="E120">
-        <f t="shared" si="5"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121">
         <v>7692</v>
       </c>
@@ -18466,15 +18021,11 @@
         <v>44065</v>
       </c>
       <c r="D121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="E121">
-        <f t="shared" si="5"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122">
         <v>7729</v>
       </c>
@@ -18485,15 +18036,11 @@
         <v>44066</v>
       </c>
       <c r="D122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="E122">
-        <f t="shared" si="5"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123">
         <v>7777</v>
       </c>
@@ -18504,15 +18051,11 @@
         <v>44067</v>
       </c>
       <c r="D123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="E123">
-        <f t="shared" si="5"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124">
         <v>7823</v>
       </c>
@@ -18523,15 +18066,11 @@
         <v>44068</v>
       </c>
       <c r="D124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="E124">
-        <f t="shared" si="5"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125">
         <v>7871</v>
       </c>
@@ -18542,15 +18081,11 @@
         <v>44069</v>
       </c>
       <c r="D125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="E125">
-        <f t="shared" si="5"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126">
         <v>7930</v>
       </c>
@@ -18561,15 +18096,11 @@
         <v>44070</v>
       </c>
       <c r="D126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="E126">
-        <f t="shared" si="5"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127">
         <v>7979</v>
       </c>
@@ -18580,15 +18111,11 @@
         <v>44071</v>
       </c>
       <c r="D127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="E127">
-        <f t="shared" si="5"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128">
         <v>8029</v>
       </c>
@@ -18599,15 +18126,11 @@
         <v>44072</v>
       </c>
       <c r="D128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="E128">
-        <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129">
         <v>8073</v>
       </c>
@@ -18618,15 +18141,11 @@
         <v>44073</v>
       </c>
       <c r="D129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="E129">
-        <f t="shared" si="5"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130">
         <v>8134</v>
       </c>
@@ -18637,15 +18156,11 @@
         <v>44074</v>
       </c>
       <c r="D130">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="E130">
-        <f t="shared" si="5"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131">
         <v>8215</v>
       </c>
@@ -18656,15 +18171,11 @@
         <v>44075</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D194" si="6">A131-A130</f>
+        <f t="shared" ref="D131:D194" si="3">A131-A130</f>
         <v>81</v>
       </c>
-      <c r="E131">
-        <f t="shared" si="5"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132">
         <v>8308</v>
       </c>
@@ -18675,15 +18186,11 @@
         <v>44076</v>
       </c>
       <c r="D132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>93</v>
       </c>
-      <c r="E132">
-        <f t="shared" si="5"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133">
         <v>8460</v>
       </c>
@@ -18694,15 +18201,11 @@
         <v>44077</v>
       </c>
       <c r="D133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>152</v>
       </c>
-      <c r="E133">
-        <f t="shared" si="5"/>
-        <v>152</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134">
         <v>8605</v>
       </c>
@@ -18713,15 +18216,11 @@
         <v>44078</v>
       </c>
       <c r="D134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>145</v>
       </c>
-      <c r="E134">
-        <f t="shared" si="5"/>
-        <v>145</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135">
         <v>8707</v>
       </c>
@@ -18732,15 +18231,11 @@
         <v>44079</v>
       </c>
       <c r="D135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>102</v>
       </c>
-      <c r="E135">
-        <f t="shared" si="5"/>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136">
         <v>8764</v>
       </c>
@@ -18751,15 +18246,11 @@
         <v>44080</v>
       </c>
       <c r="D136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
-      <c r="E136">
-        <f t="shared" si="5"/>
-        <v>57</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137">
         <v>8841</v>
       </c>
@@ -18770,15 +18261,11 @@
         <v>44081</v>
       </c>
       <c r="D137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
-      <c r="E137">
-        <f t="shared" si="5"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138">
         <v>9443</v>
       </c>
@@ -18789,15 +18276,11 @@
         <v>44087</v>
       </c>
       <c r="D138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>602</v>
       </c>
-      <c r="E138">
-        <f t="shared" si="5"/>
-        <v>602</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139">
         <v>9521</v>
       </c>
@@ -18808,15 +18291,11 @@
         <v>44088</v>
       </c>
       <c r="D139">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>78</v>
       </c>
-      <c r="E139">
-        <f t="shared" si="5"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140">
         <v>9604</v>
       </c>
@@ -18827,15 +18306,11 @@
         <v>44089</v>
       </c>
       <c r="D140">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>83</v>
       </c>
-      <c r="E140">
-        <f t="shared" si="5"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141">
         <v>9664</v>
       </c>
@@ -18846,15 +18321,11 @@
         <v>44090</v>
       </c>
       <c r="D141">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="E141">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142">
         <v>9744</v>
       </c>
@@ -18865,15 +18336,11 @@
         <v>44091</v>
       </c>
       <c r="D142">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="E142">
-        <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143">
         <v>9816</v>
       </c>
@@ -18884,15 +18351,11 @@
         <v>44092</v>
       </c>
       <c r="D143">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="E143">
-        <f t="shared" si="5"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144">
         <v>9913</v>
       </c>
@@ -18903,15 +18366,11 @@
         <v>44093</v>
       </c>
       <c r="D144">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>97</v>
       </c>
-      <c r="E144">
-        <f t="shared" si="5"/>
-        <v>97</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145">
         <v>9968</v>
       </c>
@@ -18922,15 +18381,11 @@
         <v>44094</v>
       </c>
       <c r="D145">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="E145">
-        <f t="shared" si="5"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146">
         <v>10028</v>
       </c>
@@ -18941,15 +18396,11 @@
         <v>44095</v>
       </c>
       <c r="D146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="E146">
-        <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147">
         <v>10123</v>
       </c>
@@ -18960,15 +18411,11 @@
         <v>44096</v>
       </c>
       <c r="D147">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>95</v>
       </c>
-      <c r="E147">
-        <f t="shared" si="5"/>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148">
         <v>10155</v>
       </c>
@@ -18979,15 +18426,11 @@
         <v>44097</v>
       </c>
       <c r="D148">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="E148">
-        <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149">
         <v>10249</v>
       </c>
@@ -18998,15 +18441,11 @@
         <v>44098</v>
       </c>
       <c r="D149">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>94</v>
       </c>
-      <c r="E149">
-        <f t="shared" si="5"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150">
         <v>10323</v>
       </c>
@@ -19017,15 +18456,11 @@
         <v>44099</v>
       </c>
       <c r="D150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
-      <c r="E150">
-        <f t="shared" si="5"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151">
         <v>10384</v>
       </c>
@@ -19036,15 +18471,11 @@
         <v>44100</v>
       </c>
       <c r="D151">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
-      <c r="E151">
-        <f t="shared" si="5"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152">
         <v>10412</v>
       </c>
@@ -19055,15 +18486,11 @@
         <v>44101</v>
       </c>
       <c r="D152">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="E152">
-        <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153">
         <v>10454</v>
       </c>
@@ -19074,15 +18501,11 @@
         <v>44102</v>
       </c>
       <c r="D153">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="E153">
-        <f t="shared" si="5"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154">
         <v>10502</v>
       </c>
@@ -19093,15 +18516,11 @@
         <v>44103</v>
       </c>
       <c r="D154">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
-      <c r="E154">
-        <f t="shared" si="5"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155">
         <v>10556</v>
       </c>
@@ -19112,15 +18531,11 @@
         <v>44104</v>
       </c>
       <c r="D155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
-      <c r="E155">
-        <f t="shared" si="5"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156">
         <v>10596</v>
       </c>
@@ -19131,15 +18546,11 @@
         <v>44105</v>
       </c>
       <c r="D156">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="E156">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157">
         <v>10667</v>
       </c>
@@ -19150,15 +18561,11 @@
         <v>44106</v>
       </c>
       <c r="D157">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>71</v>
       </c>
-      <c r="E157">
-        <f t="shared" si="5"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158">
         <v>10709</v>
       </c>
@@ -19169,15 +18576,11 @@
         <v>44107</v>
       </c>
       <c r="D158">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="E158">
-        <f t="shared" si="5"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159">
         <v>10749</v>
       </c>
@@ -19188,15 +18591,11 @@
         <v>44108</v>
       </c>
       <c r="D159">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="E159">
-        <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160">
         <v>10780</v>
       </c>
@@ -19207,15 +18606,11 @@
         <v>44109</v>
       </c>
       <c r="D160">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="E160">
-        <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161">
         <v>10844</v>
       </c>
@@ -19226,15 +18621,11 @@
         <v>44110</v>
       </c>
       <c r="D161">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
-      <c r="E161">
-        <f t="shared" si="5"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162">
         <v>10897</v>
       </c>
@@ -19245,15 +18636,11 @@
         <v>44111</v>
       </c>
       <c r="D162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
-      <c r="E162">
-        <f t="shared" si="5"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163">
         <v>10949</v>
       </c>
@@ -19264,15 +18651,11 @@
         <v>44112</v>
       </c>
       <c r="D163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="E163">
-        <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164">
         <v>11002</v>
       </c>
@@ -19283,15 +18666,11 @@
         <v>44113</v>
       </c>
       <c r="D164">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
-      <c r="E164">
-        <f t="shared" si="5"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165">
         <v>11078</v>
       </c>
@@ -19302,15 +18681,11 @@
         <v>44114</v>
       </c>
       <c r="D165">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
-      <c r="E165">
-        <f t="shared" ref="E165:E228" si="7">D165</f>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166">
         <v>11108</v>
       </c>
@@ -19321,15 +18696,11 @@
         <v>44115</v>
       </c>
       <c r="D166">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="E166">
-        <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167">
         <v>11149</v>
       </c>
@@ -19340,15 +18711,11 @@
         <v>44116</v>
       </c>
       <c r="D167">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="E167">
-        <f t="shared" si="7"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168">
         <v>11177</v>
       </c>
@@ -19359,15 +18726,11 @@
         <v>44117</v>
       </c>
       <c r="D168">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="E168">
-        <f t="shared" si="7"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169">
         <v>11218</v>
       </c>
@@ -19378,15 +18741,11 @@
         <v>44118</v>
       </c>
       <c r="D169">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="E169">
-        <f t="shared" si="7"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5">
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170">
         <v>11278</v>
       </c>
@@ -19397,15 +18756,11 @@
         <v>44119</v>
       </c>
       <c r="D170">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="E170">
-        <f t="shared" si="7"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171">
         <v>11311</v>
       </c>
@@ -19416,15 +18771,11 @@
         <v>44120</v>
       </c>
       <c r="D171">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="E171">
-        <f t="shared" si="7"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172">
         <v>11363</v>
       </c>
@@ -19435,15 +18786,11 @@
         <v>44121</v>
       </c>
       <c r="D172">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="E172">
-        <f t="shared" si="7"/>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173">
         <v>11422</v>
       </c>
@@ -19454,15 +18801,11 @@
         <v>44122</v>
       </c>
       <c r="D173">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
-      <c r="E173">
-        <f t="shared" si="7"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174">
         <v>11456</v>
       </c>
@@ -19473,15 +18816,11 @@
         <v>44123</v>
       </c>
       <c r="D174">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="E174">
-        <f t="shared" si="7"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175">
         <v>11486</v>
       </c>
@@ -19492,15 +18831,11 @@
         <v>44124</v>
       </c>
       <c r="D175">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="E175">
-        <f t="shared" si="7"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5">
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176">
         <v>11527</v>
       </c>
@@ -19511,15 +18846,11 @@
         <v>44125</v>
       </c>
       <c r="D176">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="E176">
-        <f t="shared" si="7"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177">
         <v>11601</v>
       </c>
@@ -19530,15 +18861,11 @@
         <v>44126</v>
       </c>
       <c r="D177">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
-      <c r="E177">
-        <f t="shared" si="7"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178">
         <v>11659</v>
       </c>
@@ -19549,15 +18876,11 @@
         <v>44127</v>
       </c>
       <c r="D178">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
-      <c r="E178">
-        <f t="shared" si="7"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179">
         <v>11703</v>
       </c>
@@ -19568,15 +18891,11 @@
         <v>44128</v>
       </c>
       <c r="D179">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
-      <c r="E179">
-        <f t="shared" si="7"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180">
         <v>11749</v>
       </c>
@@ -19587,15 +18906,11 @@
         <v>44129</v>
       </c>
       <c r="D180">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>46</v>
       </c>
-      <c r="E180">
-        <f t="shared" si="7"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5">
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181">
         <v>11792</v>
       </c>
@@ -19606,15 +18921,11 @@
         <v>44130</v>
       </c>
       <c r="D181">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
-      <c r="E181">
-        <f t="shared" si="7"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182">
         <v>11845</v>
       </c>
@@ -19625,15 +18936,11 @@
         <v>44131</v>
       </c>
       <c r="D182">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
-      <c r="E182">
-        <f t="shared" si="7"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183">
         <v>11910</v>
       </c>
@@ -19644,15 +18951,11 @@
         <v>44132</v>
       </c>
       <c r="D183">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="E183">
-        <f t="shared" si="7"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184">
         <v>12001</v>
       </c>
@@ -19663,15 +18966,11 @@
         <v>44133</v>
       </c>
       <c r="D184">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>91</v>
       </c>
-      <c r="E184">
-        <f t="shared" si="7"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185">
         <v>12117</v>
       </c>
@@ -19682,15 +18981,11 @@
         <v>44134</v>
       </c>
       <c r="D185">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>116</v>
       </c>
-      <c r="E185">
-        <f t="shared" si="7"/>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186">
         <v>12189</v>
       </c>
@@ -19701,15 +18996,11 @@
         <v>44135</v>
       </c>
       <c r="D186">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="E186">
-        <f t="shared" si="7"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5">
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187">
         <v>12236</v>
       </c>
@@ -19720,15 +19011,11 @@
         <v>44136</v>
       </c>
       <c r="D187">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
-      <c r="E187">
-        <f t="shared" si="7"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188">
         <v>12278</v>
       </c>
@@ -19739,15 +19026,11 @@
         <v>44137</v>
       </c>
       <c r="D188">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="E188">
-        <f t="shared" si="7"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189">
         <v>12341</v>
       </c>
@@ -19758,15 +19041,11 @@
         <v>44138</v>
       </c>
       <c r="D189">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
-      <c r="E189">
-        <f t="shared" si="7"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190">
         <v>12444</v>
       </c>
@@ -19777,15 +19056,11 @@
         <v>44139</v>
       </c>
       <c r="D190">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>103</v>
       </c>
-      <c r="E190">
-        <f t="shared" si="7"/>
-        <v>103</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191">
         <v>12540</v>
       </c>
@@ -19796,15 +19071,11 @@
         <v>44140</v>
       </c>
       <c r="D191">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>96</v>
       </c>
-      <c r="E191">
-        <f t="shared" si="7"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5">
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192">
         <v>12616</v>
       </c>
@@ -19815,15 +19086,11 @@
         <v>44141</v>
       </c>
       <c r="D192">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>76</v>
       </c>
-      <c r="E192">
-        <f t="shared" si="7"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
+    </row>
+    <row r="193" spans="1:4">
       <c r="A193">
         <v>12693</v>
       </c>
@@ -19834,15 +19101,11 @@
         <v>44142</v>
       </c>
       <c r="D193">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
-      <c r="E193">
-        <f t="shared" si="7"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
+    </row>
+    <row r="194" spans="1:4">
       <c r="A194">
         <v>12738</v>
       </c>
@@ -19853,15 +19116,11 @@
         <v>44143</v>
       </c>
       <c r="D194">
-        <f t="shared" si="6"/>
+        <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="E194">
-        <f t="shared" si="7"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
+    </row>
+    <row r="195" spans="1:4">
       <c r="A195">
         <v>12820</v>
       </c>
@@ -19872,15 +19131,11 @@
         <v>44144</v>
       </c>
       <c r="D195">
-        <f t="shared" ref="D195:D233" si="8">A195-A194</f>
+        <f t="shared" ref="D195:D233" si="4">A195-A194</f>
         <v>82</v>
       </c>
-      <c r="E195">
-        <f t="shared" si="7"/>
-        <v>82</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
+    </row>
+    <row r="196" spans="1:4">
       <c r="A196">
         <v>12933</v>
       </c>
@@ -19891,15 +19146,11 @@
         <v>44145</v>
       </c>
       <c r="D196">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>113</v>
       </c>
-      <c r="E196">
-        <f t="shared" si="7"/>
-        <v>113</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197">
         <v>13035</v>
       </c>
@@ -19910,15 +19161,11 @@
         <v>44146</v>
       </c>
       <c r="D197">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>102</v>
       </c>
-      <c r="E197">
-        <f t="shared" si="7"/>
-        <v>102</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
+    </row>
+    <row r="198" spans="1:4">
       <c r="A198">
         <v>13143</v>
       </c>
@@ -19929,15 +19176,11 @@
         <v>44147</v>
       </c>
       <c r="D198">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>108</v>
       </c>
-      <c r="E198">
-        <f t="shared" si="7"/>
-        <v>108</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
+    </row>
+    <row r="199" spans="1:4">
       <c r="A199">
         <v>13281</v>
       </c>
@@ -19948,15 +19191,11 @@
         <v>44148</v>
       </c>
       <c r="D199">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>138</v>
       </c>
-      <c r="E199">
-        <f t="shared" si="7"/>
-        <v>138</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
+    </row>
+    <row r="200" spans="1:4">
       <c r="A200">
         <v>13464</v>
       </c>
@@ -19967,15 +19206,11 @@
         <v>44149</v>
       </c>
       <c r="D200">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>183</v>
       </c>
-      <c r="E200">
-        <f t="shared" si="7"/>
-        <v>183</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5">
+    </row>
+    <row r="201" spans="1:4">
       <c r="A201">
         <v>13617</v>
       </c>
@@ -19986,15 +19221,11 @@
         <v>44150</v>
       </c>
       <c r="D201">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>153</v>
       </c>
-      <c r="E201">
-        <f t="shared" si="7"/>
-        <v>153</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
+    </row>
+    <row r="202" spans="1:4">
       <c r="A202">
         <v>13755</v>
       </c>
@@ -20005,15 +19236,11 @@
         <v>44151</v>
       </c>
       <c r="D202">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>138</v>
       </c>
-      <c r="E202">
-        <f t="shared" si="7"/>
-        <v>138</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
+    </row>
+    <row r="203" spans="1:4">
       <c r="A203">
         <v>13925</v>
       </c>
@@ -20024,15 +19251,11 @@
         <v>44151</v>
       </c>
       <c r="D203">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>170</v>
       </c>
-      <c r="E203">
-        <f t="shared" si="7"/>
-        <v>170</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
+    </row>
+    <row r="204" spans="1:4">
       <c r="A204">
         <v>14113</v>
       </c>
@@ -20043,15 +19266,11 @@
         <v>44153</v>
       </c>
       <c r="D204">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>188</v>
       </c>
-      <c r="E204">
-        <f t="shared" si="7"/>
-        <v>188</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
+    </row>
+    <row r="205" spans="1:4">
       <c r="A205">
         <v>14310</v>
       </c>
@@ -20062,15 +19281,11 @@
         <v>44154</v>
       </c>
       <c r="D205">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>197</v>
       </c>
-      <c r="E205">
-        <f t="shared" si="7"/>
-        <v>197</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5">
+    </row>
+    <row r="206" spans="1:4">
       <c r="A206">
         <v>14547</v>
       </c>
@@ -20081,15 +19296,11 @@
         <v>44155</v>
       </c>
       <c r="D206">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>237</v>
       </c>
-      <c r="E206">
-        <f t="shared" si="7"/>
-        <v>237</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
+    </row>
+    <row r="207" spans="1:4">
       <c r="A207">
         <v>14702</v>
       </c>
@@ -20100,15 +19311,11 @@
         <v>44156</v>
       </c>
       <c r="D207">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>155</v>
       </c>
-      <c r="E207">
-        <f t="shared" si="7"/>
-        <v>155</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
+    </row>
+    <row r="208" spans="1:4">
       <c r="A208">
         <v>14904</v>
       </c>
@@ -20119,15 +19326,11 @@
         <v>44157</v>
       </c>
       <c r="D208">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>202</v>
       </c>
-      <c r="E208">
-        <f t="shared" si="7"/>
-        <v>202</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
+    </row>
+    <row r="209" spans="1:4">
       <c r="A209">
         <v>15194</v>
       </c>
@@ -20138,15 +19341,11 @@
         <v>44158</v>
       </c>
       <c r="D209">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>290</v>
       </c>
-      <c r="E209">
-        <f t="shared" si="7"/>
-        <v>290</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5">
+    </row>
+    <row r="210" spans="1:4">
       <c r="A210">
         <v>16251</v>
       </c>
@@ -20157,15 +19356,11 @@
         <v>44163</v>
       </c>
       <c r="D210">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>1057</v>
       </c>
-      <c r="E210">
-        <f t="shared" si="7"/>
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
+    </row>
+    <row r="211" spans="1:4">
       <c r="A211">
         <v>16449</v>
       </c>
@@ -20176,15 +19371,11 @@
         <v>44164</v>
       </c>
       <c r="D211">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>198</v>
       </c>
-      <c r="E211">
-        <f t="shared" si="7"/>
-        <v>198</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
+    </row>
+    <row r="212" spans="1:4">
       <c r="A212">
         <v>16624</v>
       </c>
@@ -20195,15 +19386,11 @@
         <v>44165</v>
       </c>
       <c r="D212">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>175</v>
       </c>
-      <c r="E212">
-        <f t="shared" si="7"/>
-        <v>175</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
+    </row>
+    <row r="213" spans="1:4">
       <c r="A213">
         <v>16785</v>
       </c>
@@ -20214,15 +19401,11 @@
         <v>44166</v>
       </c>
       <c r="D213">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>161</v>
       </c>
-      <c r="E213">
-        <f t="shared" si="7"/>
-        <v>161</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
+    </row>
+    <row r="214" spans="1:4">
       <c r="A214">
         <v>17021</v>
       </c>
@@ -20233,15 +19416,11 @@
         <v>44167</v>
       </c>
       <c r="D214">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>236</v>
       </c>
-      <c r="E214">
-        <f t="shared" si="7"/>
-        <v>236</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
+    </row>
+    <row r="215" spans="1:4">
       <c r="A215">
         <v>17304</v>
       </c>
@@ -20252,15 +19431,11 @@
         <v>44168</v>
       </c>
       <c r="D215">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>283</v>
       </c>
-      <c r="E215">
-        <f t="shared" si="7"/>
-        <v>283</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
+    </row>
+    <row r="216" spans="1:4">
       <c r="A216">
         <v>17637</v>
       </c>
@@ -20271,15 +19446,11 @@
         <v>44169</v>
       </c>
       <c r="D216">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>333</v>
       </c>
-      <c r="E216">
-        <f t="shared" si="7"/>
-        <v>333</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
+    </row>
+    <row r="217" spans="1:4">
       <c r="A217">
         <v>17930</v>
       </c>
@@ -20290,15 +19461,11 @@
         <v>44170</v>
       </c>
       <c r="D217">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>293</v>
       </c>
-      <c r="E217">
-        <f t="shared" si="7"/>
-        <v>293</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
+    </row>
+    <row r="218" spans="1:4">
       <c r="A218">
         <v>18210</v>
       </c>
@@ -20309,15 +19476,11 @@
         <v>44171</v>
       </c>
       <c r="D218">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>280</v>
       </c>
-      <c r="E218">
-        <f t="shared" si="7"/>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
+    </row>
+    <row r="219" spans="1:4">
       <c r="A219">
         <v>18416</v>
       </c>
@@ -20328,15 +19491,11 @@
         <v>44172</v>
       </c>
       <c r="D219">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>206</v>
       </c>
-      <c r="E219">
-        <f t="shared" si="7"/>
-        <v>206</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
+    </row>
+    <row r="220" spans="1:4">
       <c r="A220">
         <v>18684</v>
       </c>
@@ -20347,15 +19506,11 @@
         <v>44173</v>
       </c>
       <c r="D220">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>268</v>
       </c>
-      <c r="E220">
-        <f t="shared" si="7"/>
-        <v>268</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5">
+    </row>
+    <row r="221" spans="1:4">
       <c r="A221">
         <v>18983</v>
       </c>
@@ -20366,15 +19521,11 @@
         <v>44174</v>
       </c>
       <c r="D221">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>299</v>
       </c>
-      <c r="E221">
-        <f t="shared" si="7"/>
-        <v>299</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
+    </row>
+    <row r="222" spans="1:4">
       <c r="A222">
         <v>19409</v>
       </c>
@@ -20385,15 +19536,11 @@
         <v>44175</v>
       </c>
       <c r="D222">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>426</v>
       </c>
-      <c r="E222">
-        <f t="shared" si="7"/>
-        <v>426</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
+    </row>
+    <row r="223" spans="1:4">
       <c r="A223">
         <v>19722</v>
       </c>
@@ -20404,15 +19551,11 @@
         <v>44176</v>
       </c>
       <c r="D223">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>313</v>
       </c>
-      <c r="E223">
-        <f t="shared" si="7"/>
-        <v>313</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
+    </row>
+    <row r="224" spans="1:4">
       <c r="A224">
         <v>20060</v>
       </c>
@@ -20423,15 +19566,11 @@
         <v>44177</v>
       </c>
       <c r="D224">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>338</v>
       </c>
-      <c r="E224">
-        <f t="shared" si="7"/>
-        <v>338</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
+    </row>
+    <row r="225" spans="1:4">
       <c r="A225">
         <v>20334</v>
       </c>
@@ -20442,15 +19581,11 @@
         <v>44178</v>
       </c>
       <c r="D225">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>274</v>
       </c>
-      <c r="E225">
-        <f t="shared" si="7"/>
-        <v>274</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
+    </row>
+    <row r="226" spans="1:4">
       <c r="A226">
         <v>20641</v>
       </c>
@@ -20461,15 +19596,11 @@
         <v>44179</v>
       </c>
       <c r="D226">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>307</v>
       </c>
-      <c r="E226">
-        <f t="shared" si="7"/>
-        <v>307</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
+    </row>
+    <row r="227" spans="1:4">
       <c r="A227">
         <v>21022</v>
       </c>
@@ -20480,15 +19611,11 @@
         <v>44180</v>
       </c>
       <c r="D227">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>381</v>
       </c>
-      <c r="E227">
-        <f t="shared" si="7"/>
-        <v>381</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
+    </row>
+    <row r="228" spans="1:4">
       <c r="A228">
         <v>24682</v>
       </c>
@@ -20499,15 +19626,11 @@
         <v>44189</v>
       </c>
       <c r="D228">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>3660</v>
       </c>
-      <c r="E228">
-        <f t="shared" si="7"/>
-        <v>3660</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
+    </row>
+    <row r="229" spans="1:4">
       <c r="A229">
         <v>25058</v>
       </c>
@@ -20518,15 +19641,11 @@
         <v>44190</v>
       </c>
       <c r="D229">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>376</v>
       </c>
-      <c r="E229">
-        <f t="shared" ref="E229:E233" si="9">D229</f>
-        <v>376</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
+    </row>
+    <row r="230" spans="1:4">
       <c r="A230">
         <v>25515</v>
       </c>
@@ -20537,15 +19656,11 @@
         <v>44191</v>
       </c>
       <c r="D230">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>457</v>
       </c>
-      <c r="E230">
-        <f t="shared" si="9"/>
-        <v>457</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
+    </row>
+    <row r="231" spans="1:4">
       <c r="A231">
         <v>25791</v>
       </c>
@@ -20556,15 +19671,11 @@
         <v>44192</v>
       </c>
       <c r="D231">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>276</v>
       </c>
-      <c r="E231">
-        <f t="shared" si="9"/>
-        <v>276</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
+    </row>
+    <row r="232" spans="1:4">
       <c r="A232">
         <v>26178</v>
       </c>
@@ -20575,15 +19686,11 @@
         <v>44193</v>
       </c>
       <c r="D232">
-        <f t="shared" si="8"/>
+        <f t="shared" si="4"/>
         <v>387</v>
       </c>
-      <c r="E232">
-        <f t="shared" si="9"/>
-        <v>387</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
+    </row>
+    <row r="233" spans="1:4">
       <c r="A233">
         <v>1892</v>
       </c>
@@ -20592,11 +19699,7 @@
       </c>
       <c r="C233" s="1"/>
       <c r="D233">
-        <f t="shared" si="8"/>
-        <v>-24286</v>
-      </c>
-      <c r="E233">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>-24286</v>
       </c>
     </row>
@@ -27444,7 +26547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" workbookViewId="0">
+    <sheetView topLeftCell="A167" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:D226"/>
     </sheetView>
   </sheetViews>
